--- a/kho/bang-liet-ke-san-pham.xlsx
+++ b/kho/bang-liet-ke-san-pham.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\strongway\kho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\strongway_dungcu\kho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
@@ -192,6 +192,32 @@
   </si>
   <si>
     <t>Trên kho</t>
+  </si>
+  <si>
+    <t>Đầu dưỡng trục</t>
+  </si>
+  <si>
+    <t>Đầu</t>
+  </si>
+  <si>
+    <t>Ko có mã</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">119  + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>Dưỡng rãnh</t>
   </si>
 </sst>
 </file>
@@ -202,7 +228,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,9 +301,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -366,15 +399,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,6 +465,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -464,7 +503,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color theme="4" tint="0.39994506668294322"/>
@@ -478,8 +517,12 @@
         <bottom style="medium">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="medium">
+          <color theme="4" tint="0.39994506668294322"/>
+        </vertical>
+        <horizontal style="medium">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -498,7 +541,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color theme="4" tint="0.39994506668294322"/>
@@ -512,12 +555,8 @@
         <bottom style="medium">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <vertical style="medium">
-          <color theme="4" tint="0.39994506668294322"/>
-        </vertical>
-        <horizontal style="medium">
-          <color theme="4" tint="0.39994506668294322"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -743,8 +782,8 @@
     <tableColumn id="2" name="TÊN SẢN PHẨM" dataDxfId="4"/>
     <tableColumn id="7" name="SỐ LƯỢNG" dataDxfId="3"/>
     <tableColumn id="3" name="ĐƠN VỊ" dataDxfId="2"/>
-    <tableColumn id="5" name="HIỆN TRẠNG" dataDxfId="0"/>
-    <tableColumn id="4" name="GHI CHÚ" dataDxfId="1"/>
+    <tableColumn id="5" name="HIỆN TRẠNG" dataDxfId="1"/>
+    <tableColumn id="4" name="GHI CHÚ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,408 +1054,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="21.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="5" width="21.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="11"/>
+      <c r="H6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>4</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="20"/>
+      <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>3</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="20"/>
+      <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="H9" s="2" t="s">
+      <c r="F9" s="18"/>
+      <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>15</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <v>1</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="18"/>
+      <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="H12" s="17" t="s">
+      <c r="F12" s="20"/>
+      <c r="H12" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>2</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <v>4</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>4</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>18</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="21">
-        <v>119</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10">
+        <v>84</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1429,7 +1497,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
-      <formula1>$H$6:$H$9</formula1>
+      <formula1>$H$6:$H$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E1:E1048576">
       <formula1>$H$11:$H$15</formula1>

--- a/kho/bang-liet-ke-san-pham.xlsx
+++ b/kho/bang-liet-ke-san-pham.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Dưỡng rãnh</t>
+  </si>
+  <si>
+    <t>DCTH</t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1409,6 +1412,9 @@
         <v>53</v>
       </c>
       <c r="F18" s="9"/>
+      <c r="G18" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
@@ -1446,15 +1452,22 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="9"/>
+      <c r="G21" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
@@ -1506,11 +1519,13 @@
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" tooltip="chuyển đến trang"/>
     <hyperlink ref="G17" r:id="rId2" tooltip="Chuyển đến trang "/>
+    <hyperlink ref="G18" r:id="rId3" tooltip="Chuyển đến trang"/>
+    <hyperlink ref="G21" r:id="rId4" tooltip="Chuyển đến trang"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/kho/bang-liet-ke-san-pham.xlsx
+++ b/kho/bang-liet-ke-san-pham.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>DCTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mặt đồng hồ </t>
+  </si>
+  <si>
+    <t>D044 và D162</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -402,7 +414,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +492,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -778,8 +796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Heading 2">
-  <autoFilter ref="A4:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table17" displayName="Table17" ref="A4:F26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A4:F26"/>
   <tableColumns count="6">
     <tableColumn id="1" name="STT" dataDxfId="5" dataCellStyle="Heading 2"/>
     <tableColumn id="2" name="TÊN SẢN PHẨM" dataDxfId="4"/>
@@ -1055,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1331,6 +1349,9 @@
       <c r="F14" s="24" t="s">
         <v>43</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
@@ -1376,21 +1397,19 @@
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="10">
+        <v>24</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>58</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="14" t="s">
         <v>48</v>
       </c>
@@ -1399,128 +1418,169 @@
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="10">
-        <v>30</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="E18" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="10">
-        <v>84</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>56</v>
+      <c r="B20" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="10">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="9"/>
+      <c r="G20" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="10">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="14" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="10">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
   </mergeCells>
-  <dataValidations xWindow="629" yWindow="453" count="6">
+  <dataValidations xWindow="521" yWindow="536" count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="C5:D6 D7:D10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="A5:A24"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="A5:A26"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F4 F27:F1048576">
       <formula1>$H$6:$H$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E1:E1048576">
       <formula1>$H$11:$H$15</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F26">
+      <formula1>$H$6:$H$14</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" tooltip="chuyển đến trang"/>
-    <hyperlink ref="G17" r:id="rId2" tooltip="Chuyển đến trang "/>
-    <hyperlink ref="G18" r:id="rId3" tooltip="Chuyển đến trang"/>
-    <hyperlink ref="G21" r:id="rId4" tooltip="Chuyển đến trang"/>
+    <hyperlink ref="G18" r:id="rId2" tooltip="Chuyển đến trang "/>
+    <hyperlink ref="G20" r:id="rId3" tooltip="Chuyển đến trang"/>
+    <hyperlink ref="G17" r:id="rId4" tooltip="Chuyển đến trang"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/kho/bang-liet-ke-san-pham.xlsx
+++ b/kho/bang-liet-ke-san-pham.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>Công Ty TNHH Công Nghiệp Strong Way Việt Nam</t>
   </si>
@@ -233,6 +233,18 @@
   </si>
   <si>
     <t>22</t>
+  </si>
+  <si>
+    <t>Bàn phím máy vi tính</t>
+  </si>
+  <si>
+    <t>Dầu R22</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>Hàng A2012004</t>
   </si>
 </sst>
 </file>
@@ -414,7 +426,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,9 +472,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,23 +490,29 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1073,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1182,19 +1197,19 @@
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>4</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="20"/>
+      <c r="E7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="19"/>
       <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1203,19 +1218,19 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="19"/>
       <c r="H8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1224,16 +1239,16 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>10</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="18"/>
@@ -1245,19 +1260,19 @@
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>15</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="19"/>
       <c r="H10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1266,16 +1281,16 @@
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="18"/>
@@ -1287,19 +1302,19 @@
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>10</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="H12" s="15" t="s">
         <v>52</v>
       </c>
@@ -1308,19 +1323,19 @@
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>2</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -1334,19 +1349,19 @@
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>4</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1357,20 +1372,23 @@
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>4</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="24" t="s">
+      <c r="E15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1386,7 +1404,7 @@
       <c r="D16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="16" t="s">
@@ -1418,19 +1436,19 @@
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="E18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -1444,13 +1462,13 @@
       <c r="B19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="26">
         <v>2</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="27" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1463,88 +1481,117 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" s="10">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>45</v>
+      <c r="B21" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C21" s="10">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="10">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="11"/>
+      <c r="B22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="17">
+        <v>18</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10">
+        <v>84</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="10">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
@@ -1556,36 +1603,59 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
   </mergeCells>
-  <dataValidations xWindow="521" yWindow="536" count="7">
+  <dataValidations xWindow="602" yWindow="578" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="C5:D6 D7:D10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="A5:A26"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="A5:A29"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Modify Company Name in this cell. Enter company address, phone, fax,  email &amp; website in cells B2 to G3. Enter Billing details in cells B4 to G7" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter company Street Address in this cell" sqref="A2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F4 F27:F1048576">
-      <formula1>$H$6:$H$10</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Quantity in this column under this heading" sqref="E1:E1048576">
       <formula1>$H$11:$H$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F26">
-      <formula1>$H$6:$H$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>$H$6:$H$15</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" tooltip="chuyển đến trang"/>
     <hyperlink ref="G18" r:id="rId2" tooltip="Chuyển đến trang "/>
-    <hyperlink ref="G20" r:id="rId3" tooltip="Chuyển đến trang"/>
-    <hyperlink ref="G17" r:id="rId4" tooltip="Chuyển đến trang"/>
+    <hyperlink ref="G17" r:id="rId3" tooltip="Chuyển đến trang"/>
+    <hyperlink ref="G23" r:id="rId4" tooltip="Chuyển đến trang"/>
+    <hyperlink ref="G22" r:id="rId5" tooltip="Chuyển đến trang"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>